--- a/ApolloQA/Data/RatingManual/SC/VA00063.ClassCode_OrganizationTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00063.ClassCode_OrganizationTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.ClassCode_OrganizationTypeFactors" sheetId="1" r:id="Rf9c0977bd97a464d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00063.ClassCode_OrganizationTypeFactors" sheetId="1" r:id="R7404d4d745b84d82"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1731,6 +1731,17 @@
         <x:v>611</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>Partnership</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Rural</x:v>
       </x:c>
       <x:c t="str">
